--- a/demoData/toy cement/units/auxUnits.xlsx
+++ b/demoData/toy cement/units/auxUnits.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tanzer/GitHub/BlackBlox/demoData/toy cement/units/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB0F9097-8816-CF4E-89D1-CF6241873E97}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A942D8E-340E-8048-84AB-0DD479668C4C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="280" yWindow="1540" windowWidth="26840" windowHeight="15540" xr2:uid="{BFA2CBFC-1255-CF45-9946-809990A37948}"/>
+    <workbookView xWindow="1920" yWindow="1160" windowWidth="26840" windowHeight="15540" activeTab="1" xr2:uid="{BFA2CBFC-1255-CF45-9946-809990A37948}"/>
   </bookViews>
   <sheets>
     <sheet name="c CO2 Capture" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="c Power Station" sheetId="3" r:id="rId5"/>
     <sheet name="v Power Station" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="46">
   <si>
     <t>KnownQty</t>
   </si>
@@ -131,15 +131,6 @@
     <t>default</t>
   </si>
   <si>
-    <t>EU-bat</t>
-  </si>
-  <si>
-    <t>EU-typ</t>
-  </si>
-  <si>
-    <t>EU-old</t>
-  </si>
-  <si>
     <t>GJ/t CO2</t>
   </si>
   <si>
@@ -162,6 +153,21 @@
   </si>
   <si>
     <t>GJ heat/GJ HHV</t>
+  </si>
+  <si>
+    <t>EU-2010</t>
+  </si>
+  <si>
+    <t>EU-1990</t>
+  </si>
+  <si>
+    <t>EU-2000</t>
+  </si>
+  <si>
+    <t>EU-BECCS</t>
+  </si>
+  <si>
+    <t>charcoal</t>
   </si>
 </sst>
 </file>
@@ -515,7 +521,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B83A6CCF-4B2C-AF44-8EAD-F352AB2A184C}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
@@ -628,10 +634,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CC40800-896A-AF46-B07B-1D1639E40452}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -655,7 +661,7 @@
         <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -672,7 +678,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="B4">
         <v>0.8</v>
@@ -683,7 +689,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="B5">
         <v>0.6</v>
@@ -694,13 +700,24 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7">
+        <v>0.8</v>
+      </c>
+      <c r="C7">
+        <v>1.2</v>
       </c>
     </row>
   </sheetData>
@@ -811,10 +828,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD5A1151-B238-DA46-BAC9-5709F808E66A}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="A4" sqref="A4:A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -835,7 +852,7 @@
         <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C2" t="s">
         <v>31</v>
@@ -854,7 +871,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="B4">
         <v>0.25</v>
@@ -865,7 +882,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="B5">
         <v>0.3</v>
@@ -876,13 +893,24 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="B6">
         <v>0.45</v>
       </c>
       <c r="C6">
         <v>0.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7">
+        <v>0.25</v>
+      </c>
+      <c r="C7">
+        <v>0.02</v>
       </c>
     </row>
   </sheetData>
@@ -987,10 +1015,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03997F4-E1D8-8144-B57D-72E42DBE9838}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1006,7 +1034,7 @@
         <v>27</v>
       </c>
       <c r="D1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -1014,13 +1042,13 @@
         <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -1034,12 +1062,12 @@
         <v>0.8</v>
       </c>
       <c r="D3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="B4">
         <v>0.85</v>
@@ -1048,12 +1076,12 @@
         <v>0.85</v>
       </c>
       <c r="D4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="B5">
         <v>0.6</v>
@@ -1062,12 +1090,12 @@
         <v>0.8</v>
       </c>
       <c r="D5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="B6">
         <v>0.8</v>
@@ -1076,7 +1104,21 @@
         <v>0.8</v>
       </c>
       <c r="D6" t="s">
-        <v>41</v>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7">
+        <v>0.85</v>
+      </c>
+      <c r="C7">
+        <v>0.85</v>
+      </c>
+      <c r="D7" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
